--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1241484.238391054</v>
+        <v>-1244040.554218304</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>237.1335233812146</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>365.0176709103377</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969275</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.374149395817795</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>183.4375581324413</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>134.5916654001848</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>95.93651183305515</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>231.9880677881796</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>97.01188539214105</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>49.74773411038467</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>341.9582190164927</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>345.3374211735818</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>124.0533949789329</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>148.4344942516662</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>131.2944603446581</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>107.402108275623</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>70.38407275859156</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2090,13 +2090,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>139.7286184012997</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>87.2651949615374</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>134.5665975534139</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>155.0136892434276</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,7 +3907,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002292</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808191</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1887.813801820604</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C2" t="n">
-        <v>1518.851284880192</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="D2" t="n">
-        <v>1160.585586273442</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>774.7973336751977</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>774.7973336751977</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4343,37 +4343,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.72178906653</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796416</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>2277.953133796416</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y2" t="n">
-        <v>1887.813801820604</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4440,19 +4440,19 @@
         <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>511.4317969248226</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300937</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596504</v>
@@ -4513,25 +4513,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>735.5965430581429</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8299276276689</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8299276276689</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8299276276689</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8299276276689</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8299276276689</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.8299276276689</v>
+        <v>530.2513404403938</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1537.086630593157</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
@@ -4571,10 +4571,10 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>2980.983771532044</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2649.920884188473</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W5" t="n">
-        <v>2297.152228918359</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="X5" t="n">
-        <v>1923.686470657279</v>
+        <v>2492.631839006149</v>
       </c>
       <c r="Y5" t="n">
-        <v>1923.686470657279</v>
+        <v>2102.492507030337</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4638,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.0549803959803</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959803</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>780.8063121005764</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>780.8063121005764</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>491.70344522622</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>491.70344522622</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>491.70344522622</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X7" t="n">
-        <v>491.70344522622</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y7" t="n">
-        <v>491.70344522622</v>
+        <v>631.4698357812242</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495403</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C8" t="n">
-        <v>782.3358610545008</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>424.0701624477504</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477504</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939507</v>
@@ -4823,31 +4823,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.72178906653</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796416</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535336</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559524</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.4345062145372</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="C10" t="n">
-        <v>507.4345062145372</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D10" t="n">
-        <v>507.4345062145372</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>359.5214126321441</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>507.4345062145372</v>
+        <v>770.9531732407439</v>
       </c>
       <c r="W10" t="n">
-        <v>507.4345062145372</v>
+        <v>770.9531732407439</v>
       </c>
       <c r="X10" t="n">
-        <v>507.4345062145372</v>
+        <v>542.9636223427266</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.4345062145372</v>
+        <v>542.9636223427266</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,7 +5051,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1089.575996120531</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>920.6398131926237</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>770.5231737802879</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>622.6100801978948</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>475.7201326999844</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>308.5240334148644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U13" t="n">
-        <v>2264.108249235165</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>2009.423761029278</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1720.006590992318</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1492.0170400943</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1271.22446095077</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5270,31 +5270,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5443,43 +5443,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487569</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831766</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625879</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="17">
@@ -5507,13 +5507,13 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>924.6979859831846</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>755.7618030552777</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>605.645163642942</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>605.645163642942</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>458.7552161450316</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1327.139029956954</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1106.346450813424</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,22 +6069,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,16 +6297,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6452,13 +6452,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6552,10 +6552,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,10 +6692,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6853,7 +6853,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,64 +6923,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,52 +7090,52 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7339,34 +7339,34 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111707</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,13 +7485,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.0944824954151</v>
@@ -7582,19 +7582,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,13 +7603,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150024</v>
@@ -7792,10 +7792,10 @@
         <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7810,7 +7810,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,13 +7828,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838286</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>117.5495182394684</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>45.90405474311575</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.4578307861195</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,22 +22753,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.2980162363325</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>91.11798998885234</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>9.000252501565797</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>110.0033420516653</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>84.77391660561949</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>216.1389255779994</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>25.79551989096919</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>61.35027805667495</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>10.85445046951733</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>24.81829093850968</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152326.9268048895</v>
+        <v>152326.9268048896</v>
       </c>
       <c r="C2" t="n">
         <v>184734.3982194638</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194639</v>
       </c>
       <c r="E2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="F2" t="n">
         <v>181607.9849302513</v>
@@ -26338,7 +26338,7 @@
         <v>181607.9849302513</v>
       </c>
       <c r="K2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194636</v>
@@ -26347,7 +26347,7 @@
         <v>184734.3982194636</v>
       </c>
       <c r="N2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="O2" t="n">
         <v>184734.3982194637</v>
@@ -26366,10 +26366,10 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073554</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>6.536993168992922e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551204</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.115907697472721e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,10 +26418,10 @@
         <v>11387.33216691505</v>
       </c>
       <c r="C4" t="n">
+        <v>93596.74410405254</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405257</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26430,34 +26430,34 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
+        <v>14826.69604186742</v>
+      </c>
+      <c r="K4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="K4" t="n">
-        <v>14826.69604186737</v>
-      </c>
       <c r="L4" t="n">
-        <v>22817.55530496084</v>
+        <v>22817.55530496089</v>
       </c>
       <c r="M4" t="n">
-        <v>22817.55530496084</v>
+        <v>22817.55530496078</v>
       </c>
       <c r="N4" t="n">
-        <v>22817.55530496085</v>
+        <v>22817.55530496078</v>
       </c>
       <c r="O4" t="n">
-        <v>22817.55530496081</v>
+        <v>22817.55530496082</v>
       </c>
       <c r="P4" t="n">
-        <v>22817.55530496084</v>
+        <v>22817.55530496082</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1295739.091651011</v>
+        <v>-1296099.174666729</v>
       </c>
       <c r="C6" t="n">
-        <v>-16796.28644598204</v>
+        <v>-16796.28644598227</v>
       </c>
       <c r="D6" t="n">
-        <v>-16796.28644598229</v>
+        <v>-16796.28644598197</v>
       </c>
       <c r="E6" t="n">
-        <v>-259753.7027428785</v>
+        <v>-259788.4406683142</v>
       </c>
       <c r="F6" t="n">
-        <v>65658.75906447704</v>
+        <v>65624.02113904117</v>
       </c>
       <c r="G6" t="n">
-        <v>65658.75906447686</v>
+        <v>65624.02113904117</v>
       </c>
       <c r="H6" t="n">
-        <v>65658.75906447698</v>
+        <v>65624.0211390412</v>
       </c>
       <c r="I6" t="n">
-        <v>65658.75906447666</v>
+        <v>65624.02113904107</v>
       </c>
       <c r="J6" t="n">
-        <v>-151872.4433328006</v>
+        <v>-151907.1812582362</v>
       </c>
       <c r="K6" t="n">
-        <v>65658.75906447704</v>
+        <v>65624.0211390412</v>
       </c>
       <c r="L6" t="n">
-        <v>39325.00906695556</v>
+        <v>39325.00906695552</v>
       </c>
       <c r="M6" t="n">
-        <v>-26302.30087492449</v>
+        <v>-26302.30087492464</v>
       </c>
       <c r="N6" t="n">
-        <v>58752.72706058738</v>
+        <v>58752.72706058752</v>
       </c>
       <c r="O6" t="n">
-        <v>58752.72706058732</v>
+        <v>58752.72706058745</v>
       </c>
       <c r="P6" t="n">
-        <v>58752.72706058738</v>
+        <v>58752.72706058745</v>
       </c>
     </row>
   </sheetData>
@@ -26704,7 +26704,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.171241461241152e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.171241461241152e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26960,10 +26960,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.171241461241152e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983812</v>
@@ -27585,7 +27585,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>6.331467199000627</v>
+        <v>2.471009095109395</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>286.7973298304254</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>19.00710417072236</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>82.82009478979624</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>140.0212912210572</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>23.31467275451485</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>40.90051748247174</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>21.36765304399835</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>103.7031490721618</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203965</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32473,7 +32473,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,16 +33026,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33272,13 +33272,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,31 +33494,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34162,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34211,19 +34211,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,7 +34235,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34302,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159405</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34399,7 +34399,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34448,19 +34448,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,7 +34472,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34539,7 +34539,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597745</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010463</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,13 +36677,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36920,13 +36920,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37947,16 +37947,16 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193496</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016748</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
         <v>418.6266618111712</v>
@@ -38190,7 +38190,7 @@
         <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
         <v>144.6869047919381</v>
